--- a/Docs/CF_RM_GANTT_CHART_REAL.xlsx
+++ b/Docs/CF_RM_GANTT_CHART_REAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofstthomasmn-my.sharepoint.com/personal/frie9722_stthomas_edu/Documents/Final_Project_ENGR331/dawg-security-system/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{C8B9510A-E7E6-450F-8D71-B890A544F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{319A6BF2-E685-4CBA-B88B-483CB02C2620}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{C8B9510A-E7E6-450F-8D71-B890A544F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BB89912-3ACC-4915-A2A2-BACAEB0E5FF3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8B561651-4921-42B6-B85A-5E7DD27AF2FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>Task:</t>
   </si>
@@ -386,6 +386,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D33C29-4373-467A-A64B-5C665DBF4F7C}">
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,7 +999,7 @@
       </c>
       <c r="AD7">
         <f>SUM(AP3:AP45)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
@@ -1031,7 +1035,7 @@
       </c>
       <c r="AD8">
         <f>SUM(AR:AR)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AP8">
         <f t="shared" si="0"/>
@@ -1173,6 +1177,9 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1198,6 +1205,9 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="AA14" s="13"/>
@@ -1220,6 +1230,9 @@
       </c>
       <c r="B15" t="s">
         <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1227,7 +1240,7 @@
       <c r="AA15" s="13"/>
       <c r="AP15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="1"/>
@@ -1235,7 +1248,7 @@
       </c>
       <c r="AR15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.3">
@@ -1244,13 +1257,16 @@
       </c>
       <c r="B16" t="s">
         <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="AA16" s="13"/>
       <c r="AP16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="1"/>
@@ -1258,7 +1274,7 @@
       </c>
       <c r="AR16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.3">
@@ -1267,13 +1283,16 @@
       </c>
       <c r="B17" t="s">
         <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="AA17" s="13"/>
       <c r="AP17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="1"/>
@@ -1281,7 +1300,7 @@
       </c>
       <c r="AR17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.3">
@@ -1290,13 +1309,16 @@
       </c>
       <c r="B18" t="s">
         <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="AA18" s="13"/>
       <c r="AP18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="1"/>
@@ -1304,7 +1326,7 @@
       </c>
       <c r="AR18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.3">
@@ -1313,13 +1335,16 @@
       </c>
       <c r="B19" t="s">
         <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="AA19" s="13"/>
       <c r="AP19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <f t="shared" si="1"/>
@@ -1327,7 +1352,7 @@
       </c>
       <c r="AR19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.3">
@@ -1336,13 +1361,16 @@
       </c>
       <c r="B20" t="s">
         <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="AA20" s="13"/>
       <c r="AP20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <f t="shared" si="1"/>
@@ -1350,7 +1378,7 @@
       </c>
       <c r="AR20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.3">
@@ -1368,7 +1396,7 @@
       <c r="AA21" s="13"/>
       <c r="AP21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <f t="shared" si="1"/>
@@ -1376,7 +1404,7 @@
       </c>
       <c r="AR21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.3">
@@ -1394,7 +1422,7 @@
       <c r="AA22" s="13"/>
       <c r="AP22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="1"/>
@@ -1402,7 +1430,7 @@
       </c>
       <c r="AR22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.3">

--- a/Docs/CF_RM_GANTT_CHART_REAL.xlsx
+++ b/Docs/CF_RM_GANTT_CHART_REAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofstthomasmn-my.sharepoint.com/personal/frie9722_stthomas_edu/Documents/Final_Project_ENGR331/dawg-security-system/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{C8B9510A-E7E6-450F-8D71-B890A544F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BB89912-3ACC-4915-A2A2-BACAEB0E5FF3}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{C8B9510A-E7E6-450F-8D71-B890A544F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DFD71A3-8135-40B5-A000-31FB1B9FAAD2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8B561651-4921-42B6-B85A-5E7DD27AF2FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>Task:</t>
   </si>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D33C29-4373-467A-A64B-5C665DBF4F7C}">
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="AF15" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="AD7">
         <f>SUM(AP3:AP45)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="AD8">
         <f>SUM(AR:AR)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AP8">
         <f t="shared" si="0"/>
@@ -1455,6 +1455,9 @@
       <c r="B24" t="s">
         <v>14</v>
       </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -1480,6 +1483,9 @@
       <c r="B25" t="s">
         <v>14</v>
       </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="AA25" s="13"/>
       <c r="AP25">
@@ -1501,6 +1507,9 @@
       </c>
       <c r="B26" t="s">
         <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -1509,7 +1518,7 @@
       <c r="AA26" s="13"/>
       <c r="AP26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <f t="shared" si="1"/>
@@ -1517,7 +1526,7 @@
       </c>
       <c r="AR26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.3">
@@ -1526,6 +1535,9 @@
       </c>
       <c r="B27" t="s">
         <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -1533,7 +1545,7 @@
       <c r="AA27" s="13"/>
       <c r="AP27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <f t="shared" si="1"/>
@@ -1541,7 +1553,7 @@
       </c>
       <c r="AR27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.3">
@@ -1550,6 +1562,9 @@
       </c>
       <c r="B28" t="s">
         <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -1559,7 +1574,7 @@
       <c r="AA28" s="13"/>
       <c r="AP28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <f t="shared" si="1"/>
@@ -1567,7 +1582,7 @@
       </c>
       <c r="AR28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.3">
@@ -1576,6 +1591,9 @@
       </c>
       <c r="B29" t="s">
         <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -1583,7 +1601,7 @@
       <c r="AA29" s="13"/>
       <c r="AP29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="1"/>
@@ -1591,7 +1609,7 @@
       </c>
       <c r="AR29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.3">
@@ -1600,6 +1618,9 @@
       </c>
       <c r="B30" t="s">
         <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -1608,7 +1629,7 @@
       <c r="AA30" s="13"/>
       <c r="AP30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <f t="shared" si="1"/>
@@ -1616,7 +1637,7 @@
       </c>
       <c r="AR30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.3">
@@ -1625,6 +1646,9 @@
       </c>
       <c r="B31" t="s">
         <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -1632,7 +1656,7 @@
       <c r="AA31" s="13"/>
       <c r="AP31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <f t="shared" si="1"/>
@@ -1640,7 +1664,7 @@
       </c>
       <c r="AR31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.3">
@@ -1654,7 +1678,7 @@
       <c r="AA32" s="13"/>
       <c r="AP32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <f t="shared" si="1"/>
@@ -1662,7 +1686,7 @@
       </c>
       <c r="AR32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.3">
@@ -1670,7 +1694,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
@@ -1679,7 +1703,7 @@
       <c r="AA33" s="13"/>
       <c r="AP33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <f t="shared" si="1"/>
@@ -1687,7 +1711,7 @@
       </c>
       <c r="AR33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.3">
@@ -1720,7 +1744,10 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
       </c>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -1745,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -1775,7 +1802,7 @@
       <c r="AA37" s="13"/>
       <c r="AP37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <f t="shared" si="1"/>
@@ -1783,7 +1810,7 @@
       </c>
       <c r="AR37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.3">
